--- a/figure/Landing.xlsx
+++ b/figure/Landing.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEF17B-8670-49F8-8875-211898A61101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <definedName name="ro">Sheet1!$E$21</definedName>
     <definedName name="V_SL">Sheet1!$E$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,8 +198,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +207,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +238,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -270,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,8 +315,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,7 +399,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$20:$O$38</c:f>
+              <c:f>Sheet1!$O$2:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -445,7 +465,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -548,7 +568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$20:$R$38</c:f>
+              <c:f>Sheet1!$R$2:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -614,7 +634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -717,7 +737,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$20:$W$38</c:f>
+              <c:f>Sheet1!$W$2:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -783,7 +803,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$20:$V$38</c:f>
+              <c:f>Sheet1!$V$2:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -886,7 +906,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$20:$Z$38</c:f>
+              <c:f>Sheet1!$Z$2:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -952,7 +972,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$20:$V$38</c:f>
+              <c:f>Sheet1!$V$2:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1087,7 +1107,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1210,7 +1229,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1291,7 +1309,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1419,7 +1436,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$20:$P$38</c:f>
+              <c:f>Sheet1!$P$2:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1485,7 +1502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1588,7 +1605,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$20:$S$38</c:f>
+              <c:f>Sheet1!$S$2:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1654,7 +1671,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1757,7 +1774,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$20:$X$38</c:f>
+              <c:f>Sheet1!$X$2:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1823,7 +1840,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$20:$V$38</c:f>
+              <c:f>Sheet1!$V$2:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1926,7 +1943,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$20:$AA$38</c:f>
+              <c:f>Sheet1!$AA$2:$AA$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1992,7 +2009,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$20:$V$38</c:f>
+              <c:f>Sheet1!$V$2:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2127,7 +2144,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2250,7 +2266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2331,7 +2346,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2459,7 +2473,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$20:$Q$38</c:f>
+              <c:f>Sheet1!$Q$2:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2525,7 +2539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2628,7 +2642,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$T$20:$T$38</c:f>
+              <c:f>Sheet1!$T$2:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2694,7 +2708,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2797,7 +2811,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$20:$Y$38</c:f>
+              <c:f>Sheet1!$Y$2:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2863,7 +2877,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$20:$V$38</c:f>
+              <c:f>Sheet1!$V$2:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2966,7 +2980,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$20:$AB$38</c:f>
+              <c:f>Sheet1!$AB$2:$AB$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3032,7 +3046,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$20:$V$38</c:f>
+              <c:f>Sheet1!$V$2:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3167,7 +3181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3290,7 +3303,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3371,7 +3383,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5123,7 +5134,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5153,7 +5170,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5185,7 +5208,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5467,43 +5496,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:AB60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P31" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC46" sqref="AC46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <f>E26</f>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P2" s="2">
+        <f>E29</f>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>E32</f>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R2" s="2">
+        <f>I26</f>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S2" s="2">
+        <f>I29</f>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T2" s="2">
+        <f>I32</f>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V2" s="15">
+        <v>0</v>
+      </c>
+      <c r="W2" s="15">
+        <f>E35</f>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X2" s="15">
+        <f>E38</f>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y2" s="15">
+        <f>E41</f>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z2" s="15">
+        <f>I35</f>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA2" s="15">
+        <f>I38</f>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB2" s="15">
+        <f>I41</f>
+        <v>178.10542170183092</v>
+      </c>
+    </row>
+    <row r="3" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="2">
+        <f>O2</f>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:T3" si="0">P2</f>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="0"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="0"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="W3" s="15">
+        <f>W2</f>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X3" s="15">
+        <f t="shared" ref="X3:AB3" si="1">X2</f>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y3" s="15">
+        <f t="shared" si="1"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z3" s="15">
+        <f t="shared" si="1"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA3" s="15">
+        <f t="shared" si="1"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB3" s="15">
+        <f t="shared" si="1"/>
+        <v>178.10542170183092</v>
+      </c>
+    </row>
+    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O20" si="2">O3</f>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P20" si="3">P3</f>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q20" si="4">Q3</f>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R20" si="5">R3</f>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S20" si="6">S3</f>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T20" si="7">T3</f>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4:W20" si="8">W3</f>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4:X20" si="9">X3</f>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y4" s="15">
+        <f t="shared" ref="Y4:Y20" si="10">Y3</f>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z4" s="15">
+        <f t="shared" ref="Z4:Z20" si="11">Z3</f>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA4" s="15">
+        <f t="shared" ref="AA4:AA20" si="12">AA3</f>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB4" s="15">
+        <f t="shared" ref="AB4:AB20" si="13">AB3</f>
+        <v>178.10542170183092</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="W5" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X5" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y5" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z5" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA5" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB5" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="W6" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X6" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y6" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z6" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA6" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB6" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="18"/>
+      <c r="N7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="W7" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X7" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y7" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z7" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA7" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB7" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V8" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X8" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y8" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z8" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA8" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB8" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5517,8 +5981,62 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="W9" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X9" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y9" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z9" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA9" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB9" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
@@ -5532,14 +6050,122 @@
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="N10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z10" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB10" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
+      <c r="N11" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y11" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z11" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA11" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB11" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
@@ -5553,8 +6179,62 @@
       <c r="F12" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="N12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y12" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z12" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA12" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB12" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
         <v>1</v>
       </c>
@@ -5568,8 +6248,62 @@
       <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="N13" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y13" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z13" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
@@ -5583,8 +6317,62 @@
       <c r="F14" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="N14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V14" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z14" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB14" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>1</v>
       </c>
@@ -5598,8 +6386,62 @@
       <c r="F15" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="N15" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z15" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB15" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
@@ -5611,8 +6453,62 @@
         <v>114.6701526922969</v>
       </c>
       <c r="F16" s="5"/>
+      <c r="N16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z16" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB16" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>1</v>
       </c>
@@ -5627,8 +6523,62 @@
         <f>1/K18</f>
         <v>0.87729896907216498</v>
       </c>
+      <c r="N17" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z17" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA17" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB17" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -5642,8 +6592,62 @@
         <f>48.5/42.549</f>
         <v>1.1398622764342288</v>
       </c>
+      <c r="N18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y18" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z18" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA18" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB18" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
+      </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -5656,50 +6660,62 @@
       <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB19" s="15" t="s">
-        <v>39</v>
+      <c r="N19" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="2"/>
+        <v>147.19146588611167</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="3"/>
+        <v>137.3787014937042</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="4"/>
+        <v>132.47231929750049</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="5"/>
+        <v>126.65371771921107</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="6"/>
+        <v>118.21013653793032</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="7"/>
+        <v>113.98834594728997</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="8"/>
+        <v>229.9848978831493</v>
+      </c>
+      <c r="X19" s="15">
+        <f t="shared" si="9"/>
+        <v>214.65257135760595</v>
+      </c>
+      <c r="Y19" s="15">
+        <f t="shared" si="10"/>
+        <v>206.98640809483433</v>
+      </c>
+      <c r="Z19" s="15">
+        <f t="shared" si="11"/>
+        <v>197.89491300203434</v>
+      </c>
+      <c r="AA19" s="15">
+        <f t="shared" si="12"/>
+        <v>184.70191880189873</v>
+      </c>
+      <c r="AB19" s="15">
+        <f t="shared" si="13"/>
+        <v>178.10542170183092</v>
       </c>
     </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -5710,61 +6726,61 @@
         <v>2.7</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O20" s="2">
-        <f>E26</f>
+        <f t="shared" si="2"/>
         <v>147.19146588611167</v>
       </c>
       <c r="P20" s="2">
-        <f>E29</f>
+        <f t="shared" si="3"/>
         <v>137.3787014937042</v>
       </c>
       <c r="Q20" s="2">
-        <f>E32</f>
+        <f t="shared" si="4"/>
         <v>132.47231929750049</v>
       </c>
       <c r="R20" s="2">
-        <f>I26</f>
+        <f t="shared" si="5"/>
         <v>126.65371771921107</v>
       </c>
       <c r="S20" s="2">
-        <f>I29</f>
+        <f t="shared" si="6"/>
         <v>118.21013653793032</v>
       </c>
       <c r="T20" s="2">
-        <f>I32</f>
+        <f t="shared" si="7"/>
         <v>113.98834594728997</v>
       </c>
       <c r="V20" s="15">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W20" s="15">
-        <f>E35</f>
+        <f t="shared" si="8"/>
         <v>229.9848978831493</v>
       </c>
       <c r="X20" s="15">
-        <f>E38</f>
+        <f t="shared" si="9"/>
         <v>214.65257135760595</v>
       </c>
       <c r="Y20" s="15">
-        <f>E41</f>
+        <f t="shared" si="10"/>
         <v>206.98640809483433</v>
       </c>
       <c r="Z20" s="15">
-        <f>I35</f>
+        <f t="shared" si="11"/>
         <v>197.89491300203434</v>
       </c>
       <c r="AA20" s="15">
-        <f>I38</f>
+        <f t="shared" si="12"/>
         <v>184.70191880189873</v>
       </c>
       <c r="AB20" s="15">
-        <f>I41</f>
+        <f t="shared" si="13"/>
         <v>178.10542170183092</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
@@ -5777,62 +6793,8 @@
       <c r="F21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="O21" s="2">
-        <f>O20</f>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" ref="P21:T21" si="0">P20</f>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="0"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="0"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" si="0"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T21" s="2">
-        <f t="shared" si="0"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V21" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="W21" s="15">
-        <f>W20</f>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X21" s="15">
-        <f t="shared" ref="X21:AB21" si="1">X20</f>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y21" s="15">
-        <f t="shared" si="1"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z21" s="15">
-        <f t="shared" si="1"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA21" s="15">
-        <f t="shared" si="1"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB21" s="15">
-        <f t="shared" si="1"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -5845,174 +6807,8 @@
       <c r="F22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" ref="O22:O38" si="2">O21</f>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" ref="P22:P38" si="3">P21</f>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" ref="Q22:Q38" si="4">Q21</f>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" ref="R22:R38" si="5">R21</f>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S22" s="2">
-        <f t="shared" ref="S22:S38" si="6">S21</f>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T22" s="2">
-        <f t="shared" ref="T22:T38" si="7">T21</f>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V22" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="W22" s="15">
-        <f t="shared" ref="W22:W38" si="8">W21</f>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X22" s="15">
-        <f t="shared" ref="X22:X38" si="9">X21</f>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y22" s="15">
-        <f t="shared" ref="Y22:Y38" si="10">Y21</f>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z22" s="15">
-        <f t="shared" ref="Z22:Z38" si="11">Z21</f>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA22" s="15">
-        <f t="shared" ref="AA22:AA38" si="12">AA21</f>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB22" s="15">
-        <f t="shared" ref="AB22:AB38" si="13">AB21</f>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="N23" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S23" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T23" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V23" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="W23" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X23" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y23" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z23" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA23" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB23" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="N24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S24" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T24" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V24" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="W24" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X24" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y24" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z24" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA24" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB24" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>13</v>
       </c>
@@ -6037,62 +6833,8 @@
         <v>23</v>
       </c>
       <c r="K25" s="18"/>
-      <c r="N25" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S25" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T25" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V25" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="W25" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X25" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y25" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z25" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA25" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB25" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
@@ -6107,119 +6849,11 @@
         <f>I25/E9</f>
         <v>126.65371771921107</v>
       </c>
-      <c r="N26" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O26" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q26" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S26" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T26" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V26" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="W26" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X26" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y26" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z26" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA26" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB26" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
       <c r="I27" s="13"/>
-      <c r="N27" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="O27" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S27" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T27" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V27" s="15">
-        <v>0.35</v>
-      </c>
-      <c r="W27" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X27" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y27" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z27" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA27" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB27" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
@@ -6244,62 +6878,8 @@
         <v>23</v>
       </c>
       <c r="K28" s="18"/>
-      <c r="N28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S28" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T28" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V28" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="W28" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X28" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y28" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z28" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA28" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB28" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
@@ -6314,119 +6894,11 @@
         <f>I28/E9</f>
         <v>118.21013653793032</v>
       </c>
-      <c r="N29" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O29" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S29" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T29" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V29" s="15">
-        <v>0.45</v>
-      </c>
-      <c r="W29" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X29" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y29" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z29" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA29" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB29" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
       <c r="I30" s="13"/>
-      <c r="N30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O30" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S30" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T30" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V30" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="W30" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X30" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y30" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z30" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA30" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB30" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
         <v>14</v>
       </c>
@@ -6451,62 +6923,8 @@
         <v>23</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="N31" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S31" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T31" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V31" s="15">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W31" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X31" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y31" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z31" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA31" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB31" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
@@ -6521,119 +6939,11 @@
         <f>I31/E9</f>
         <v>113.98834594728997</v>
       </c>
-      <c r="N32" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O32" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S32" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T32" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V32" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="W32" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X32" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y32" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z32" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA32" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB32" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="I33" s="13"/>
-      <c r="N33" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="O33" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S33" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T33" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V33" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="W33" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X33" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y33" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z33" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA33" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB33" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="8" t="s">
         <v>15</v>
       </c>
@@ -6658,62 +6968,8 @@
         <v>23</v>
       </c>
       <c r="K34" s="18"/>
-      <c r="N34" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S34" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T34" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V34" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="W34" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X34" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y34" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z34" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA34" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB34" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
@@ -6728,119 +6984,11 @@
         <f>I34/E10</f>
         <v>197.89491300203434</v>
       </c>
-      <c r="N35" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V35" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="W35" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X35" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y35" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z35" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA35" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB35" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="I36" s="13"/>
-      <c r="N36" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S36" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T36" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V36" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="W36" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X36" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y36" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z36" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA36" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB36" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="37" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
         <v>16</v>
       </c>
@@ -6865,62 +7013,8 @@
         <v>23</v>
       </c>
       <c r="K37" s="18"/>
-      <c r="N37" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S37" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T37" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V37" s="15">
-        <v>0.85</v>
-      </c>
-      <c r="W37" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X37" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y37" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z37" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA37" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB37" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="38" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -6937,65 +7031,11 @@
         <f>I37/E10</f>
         <v>184.70191880189873</v>
       </c>
-      <c r="N38" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="2"/>
-        <v>147.19146588611167</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="3"/>
-        <v>137.3787014937042</v>
-      </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="4"/>
-        <v>132.47231929750049</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="5"/>
-        <v>126.65371771921107</v>
-      </c>
-      <c r="S38" s="2">
-        <f t="shared" si="6"/>
-        <v>118.21013653793032</v>
-      </c>
-      <c r="T38" s="2">
-        <f t="shared" si="7"/>
-        <v>113.98834594728997</v>
-      </c>
-      <c r="V38" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W38" s="15">
-        <f t="shared" si="8"/>
-        <v>229.9848978831493</v>
-      </c>
-      <c r="X38" s="15">
-        <f t="shared" si="9"/>
-        <v>214.65257135760595</v>
-      </c>
-      <c r="Y38" s="15">
-        <f t="shared" si="10"/>
-        <v>206.98640809483433</v>
-      </c>
-      <c r="Z38" s="15">
-        <f t="shared" si="11"/>
-        <v>197.89491300203434</v>
-      </c>
-      <c r="AA38" s="15">
-        <f t="shared" si="12"/>
-        <v>184.70191880189873</v>
-      </c>
-      <c r="AB38" s="15">
-        <f t="shared" si="13"/>
-        <v>178.10542170183092</v>
-      </c>
     </row>
-    <row r="39" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
@@ -7021,7 +7061,7 @@
       </c>
       <c r="K40" s="18"/>
     </row>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
@@ -7037,7 +7077,7 @@
         <v>178.10542170183092</v>
       </c>
     </row>
-    <row r="47" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
         <v>46</v>
       </c>
@@ -7048,7 +7088,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
         <v>55</v>
@@ -7059,7 +7099,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
         <v>54</v>
       </c>
@@ -7072,7 +7112,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>52</v>
       </c>
@@ -7085,7 +7125,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
@@ -7098,7 +7138,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -7111,7 +7151,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>53</v>
       </c>
@@ -7125,7 +7165,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>50</v>
       </c>
@@ -7139,7 +7179,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7148,7 +7188,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2">
         <f>14.61*((1+0.2*0.173^2)^(7/2)-1)</f>
@@ -7160,7 +7200,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -7169,7 +7209,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7178,7 +7218,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7187,7 +7227,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>

--- a/figure/Landing.xlsx
+++ b/figure/Landing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD3C32-6037-411D-A013-DCD6A6C82905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B80DB18-7319-41DF-B30D-16C9BFD0F25D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1283,6 +1283,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
@@ -1390,54 +1397,54 @@
         <v>0.05</v>
       </c>
       <c r="B3" s="2">
-        <f>B2</f>
+        <f t="shared" ref="B3:B20" si="0">B2</f>
         <v>147.19146588611167</v>
       </c>
       <c r="C3" s="2">
-        <f>C2</f>
+        <f t="shared" ref="C3:C20" si="1">C2</f>
         <v>137.3787014937042</v>
       </c>
       <c r="D3" s="2">
-        <f>D2</f>
+        <f t="shared" ref="D3:D20" si="2">D2</f>
         <v>132.47231929750049</v>
       </c>
       <c r="E3" s="2">
-        <f>E2</f>
+        <f t="shared" ref="E3:E20" si="3">E2</f>
         <v>126.65371771921107</v>
       </c>
       <c r="F3" s="2">
-        <f>F2</f>
+        <f t="shared" ref="F3:F20" si="4">F2</f>
         <v>118.21013653793032</v>
       </c>
       <c r="G3" s="2">
-        <f>G2</f>
+        <f t="shared" ref="G3:G20" si="5">G2</f>
         <v>113.98834594728997</v>
       </c>
       <c r="I3" s="15">
         <v>0.05</v>
       </c>
       <c r="J3" s="15">
-        <f>J2</f>
+        <f t="shared" ref="J3:J20" si="6">J2</f>
         <v>229.9848978831493</v>
       </c>
       <c r="K3" s="15">
-        <f>K2</f>
+        <f t="shared" ref="K3:K20" si="7">K2</f>
         <v>214.65257135760595</v>
       </c>
       <c r="L3" s="15">
-        <f>L2</f>
+        <f t="shared" ref="L3:L20" si="8">L2</f>
         <v>206.98640809483433</v>
       </c>
       <c r="M3" s="15">
-        <f>M2</f>
+        <f t="shared" ref="M3:M20" si="9">M2</f>
         <v>197.89491300203434</v>
       </c>
       <c r="N3" s="15">
-        <f>N2</f>
+        <f t="shared" ref="N3:N20" si="10">N2</f>
         <v>184.70191880189873</v>
       </c>
       <c r="O3" s="15">
-        <f>O2</f>
+        <f t="shared" ref="O3:O20" si="11">O2</f>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1446,54 +1453,54 @@
         <v>0.1</v>
       </c>
       <c r="B4" s="2">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C4" s="2">
-        <f>C3</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D4" s="2">
-        <f>D3</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E4" s="2">
-        <f>E3</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F4" s="2">
-        <f>F3</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G4" s="2">
-        <f>G3</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I4" s="15">
         <v>0.1</v>
       </c>
       <c r="J4" s="15">
-        <f>J3</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K4" s="15">
-        <f>K3</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L4" s="15">
-        <f>L3</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M4" s="15">
-        <f>M3</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N4" s="15">
-        <f>N3</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O4" s="15">
-        <f>O3</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1502,54 +1509,54 @@
         <v>0.15</v>
       </c>
       <c r="B5" s="2">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C5" s="2">
-        <f>C4</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D5" s="2">
-        <f>D4</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E5" s="2">
-        <f>E4</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F5" s="2">
-        <f>F4</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G5" s="2">
-        <f>G4</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I5" s="15">
         <v>0.15</v>
       </c>
       <c r="J5" s="15">
-        <f>J4</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K5" s="15">
-        <f>K4</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L5" s="15">
-        <f>L4</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M5" s="15">
-        <f>M4</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N5" s="15">
-        <f>N4</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O5" s="15">
-        <f>O4</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1558,54 +1565,54 @@
         <v>0.2</v>
       </c>
       <c r="B6" s="2">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C6" s="2">
-        <f>C5</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D6" s="2">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E6" s="2">
-        <f>E5</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F6" s="2">
-        <f>F5</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G6" s="2">
-        <f>G5</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I6" s="15">
         <v>0.2</v>
       </c>
       <c r="J6" s="15">
-        <f>J5</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K6" s="15">
-        <f>K5</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L6" s="15">
-        <f>L5</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M6" s="15">
-        <f>M5</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N6" s="15">
-        <f>N5</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O6" s="15">
-        <f>O5</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1614,54 +1621,54 @@
         <v>0.25</v>
       </c>
       <c r="B7" s="2">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C7" s="2">
-        <f>C6</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D7" s="2">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E7" s="2">
-        <f>E6</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F7" s="2">
-        <f>F6</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G7" s="2">
-        <f>G6</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I7" s="15">
         <v>0.25</v>
       </c>
       <c r="J7" s="15">
-        <f>J6</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K7" s="15">
-        <f>K6</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L7" s="15">
-        <f>L6</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M7" s="15">
-        <f>M6</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N7" s="15">
-        <f>N6</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O7" s="15">
-        <f>O6</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1670,54 +1677,54 @@
         <v>0.3</v>
       </c>
       <c r="B8" s="2">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C8" s="2">
-        <f>C7</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D8" s="2">
-        <f>D7</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E8" s="2">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F8" s="2">
-        <f>F7</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G8" s="2">
-        <f>G7</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I8" s="15">
         <v>0.3</v>
       </c>
       <c r="J8" s="15">
-        <f>J7</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K8" s="15">
-        <f>K7</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L8" s="15">
-        <f>L7</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M8" s="15">
-        <f>M7</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N8" s="15">
-        <f>N7</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O8" s="15">
-        <f>O7</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1726,54 +1733,54 @@
         <v>0.35</v>
       </c>
       <c r="B9" s="2">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C9" s="2">
-        <f>C8</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D9" s="2">
-        <f>D8</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E9" s="2">
-        <f>E8</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F9" s="2">
-        <f>F8</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G9" s="2">
-        <f>G8</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I9" s="15">
         <v>0.35</v>
       </c>
       <c r="J9" s="15">
-        <f>J8</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K9" s="15">
-        <f>K8</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L9" s="15">
-        <f>L8</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M9" s="15">
-        <f>M8</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N9" s="15">
-        <f>N8</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O9" s="15">
-        <f>O8</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1782,54 +1789,54 @@
         <v>0.4</v>
       </c>
       <c r="B10" s="2">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C10" s="2">
-        <f>C9</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D10" s="2">
-        <f>D9</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E10" s="2">
-        <f>E9</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F10" s="2">
-        <f>F9</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G10" s="2">
-        <f>G9</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I10" s="15">
         <v>0.4</v>
       </c>
       <c r="J10" s="15">
-        <f>J9</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K10" s="15">
-        <f>K9</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L10" s="15">
-        <f>L9</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M10" s="15">
-        <f>M9</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N10" s="15">
-        <f>N9</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O10" s="15">
-        <f>O9</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1838,54 +1845,54 @@
         <v>0.45</v>
       </c>
       <c r="B11" s="2">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C11" s="2">
-        <f>C10</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D11" s="2">
-        <f>D10</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E11" s="2">
-        <f>E10</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F11" s="2">
-        <f>F10</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G11" s="2">
-        <f>G10</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I11" s="15">
         <v>0.45</v>
       </c>
       <c r="J11" s="15">
-        <f>J10</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K11" s="15">
-        <f>K10</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L11" s="15">
-        <f>L10</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M11" s="15">
-        <f>M10</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N11" s="15">
-        <f>N10</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O11" s="15">
-        <f>O10</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1894,54 +1901,54 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="2">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C12" s="2">
-        <f>C11</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D12" s="2">
-        <f>D11</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E12" s="2">
-        <f>E11</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F12" s="2">
-        <f>F11</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G12" s="2">
-        <f>G11</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I12" s="15">
         <v>0.5</v>
       </c>
       <c r="J12" s="15">
-        <f>J11</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K12" s="15">
-        <f>K11</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L12" s="15">
-        <f>L11</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M12" s="15">
-        <f>M11</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N12" s="15">
-        <f>N11</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O12" s="15">
-        <f>O11</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -1950,54 +1957,54 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B13" s="2">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C13" s="2">
-        <f>C12</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D13" s="2">
-        <f>D12</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E13" s="2">
-        <f>E12</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F13" s="2">
-        <f>F12</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G13" s="2">
-        <f>G12</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I13" s="15">
         <v>0.55000000000000004</v>
       </c>
       <c r="J13" s="15">
-        <f>J12</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K13" s="15">
-        <f>K12</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L13" s="15">
-        <f>L12</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M13" s="15">
-        <f>M12</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N13" s="15">
-        <f>N12</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O13" s="15">
-        <f>O12</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -2006,54 +2013,54 @@
         <v>0.6</v>
       </c>
       <c r="B14" s="2">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C14" s="2">
-        <f>C13</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D14" s="2">
-        <f>D13</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E14" s="2">
-        <f>E13</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F14" s="2">
-        <f>F13</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G14" s="2">
-        <f>G13</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I14" s="15">
         <v>0.6</v>
       </c>
       <c r="J14" s="15">
-        <f>J13</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K14" s="15">
-        <f>K13</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L14" s="15">
-        <f>L13</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M14" s="15">
-        <f>M13</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N14" s="15">
-        <f>N13</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O14" s="15">
-        <f>O13</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -2062,54 +2069,54 @@
         <v>0.65</v>
       </c>
       <c r="B15" s="2">
-        <f>B14</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C15" s="2">
-        <f>C14</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D15" s="2">
-        <f>D14</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E15" s="2">
-        <f>E14</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F15" s="2">
-        <f>F14</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G15" s="2">
-        <f>G14</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I15" s="15">
         <v>0.65</v>
       </c>
       <c r="J15" s="15">
-        <f>J14</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K15" s="15">
-        <f>K14</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L15" s="15">
-        <f>L14</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M15" s="15">
-        <f>M14</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N15" s="15">
-        <f>N14</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O15" s="15">
-        <f>O14</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -2118,54 +2125,54 @@
         <v>0.7</v>
       </c>
       <c r="B16" s="2">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C16" s="2">
-        <f>C15</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D16" s="2">
-        <f>D15</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E16" s="2">
-        <f>E15</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F16" s="2">
-        <f>F15</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G16" s="2">
-        <f>G15</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I16" s="15">
         <v>0.7</v>
       </c>
       <c r="J16" s="15">
-        <f>J15</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K16" s="15">
-        <f>K15</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L16" s="15">
-        <f>L15</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M16" s="15">
-        <f>M15</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N16" s="15">
-        <f>N15</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O16" s="15">
-        <f>O15</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -2174,54 +2181,54 @@
         <v>0.75</v>
       </c>
       <c r="B17" s="2">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C17" s="2">
-        <f>C16</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D17" s="2">
-        <f>D16</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E17" s="2">
-        <f>E16</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F17" s="2">
-        <f>F16</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G17" s="2">
-        <f>G16</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I17" s="15">
         <v>0.75</v>
       </c>
       <c r="J17" s="15">
-        <f>J16</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K17" s="15">
-        <f>K16</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L17" s="15">
-        <f>L16</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M17" s="15">
-        <f>M16</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N17" s="15">
-        <f>N16</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O17" s="15">
-        <f>O16</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -2230,54 +2237,54 @@
         <v>0.8</v>
       </c>
       <c r="B18" s="2">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C18" s="2">
-        <f>C17</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D18" s="2">
-        <f>D17</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E18" s="2">
-        <f>E17</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F18" s="2">
-        <f>F17</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G18" s="2">
-        <f>G17</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I18" s="15">
         <v>0.8</v>
       </c>
       <c r="J18" s="15">
-        <f>J17</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K18" s="15">
-        <f>K17</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L18" s="15">
-        <f>L17</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M18" s="15">
-        <f>M17</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N18" s="15">
-        <f>N17</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O18" s="15">
-        <f>O17</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -2286,54 +2293,54 @@
         <v>0.85</v>
       </c>
       <c r="B19" s="2">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C19" s="2">
-        <f>C18</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D19" s="2">
-        <f>D18</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E19" s="2">
-        <f>E18</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F19" s="2">
-        <f>F18</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G19" s="2">
-        <f>G18</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I19" s="15">
         <v>0.85</v>
       </c>
       <c r="J19" s="15">
-        <f>J18</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K19" s="15">
-        <f>K18</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L19" s="15">
-        <f>L18</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M19" s="15">
-        <f>M18</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N19" s="15">
-        <f>N18</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O19" s="15">
-        <f>O18</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
@@ -2342,54 +2349,54 @@
         <v>0.9</v>
       </c>
       <c r="B20" s="2">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>147.19146588611167</v>
       </c>
       <c r="C20" s="2">
-        <f>C19</f>
+        <f t="shared" si="1"/>
         <v>137.3787014937042</v>
       </c>
       <c r="D20" s="2">
-        <f>D19</f>
+        <f t="shared" si="2"/>
         <v>132.47231929750049</v>
       </c>
       <c r="E20" s="2">
-        <f>E19</f>
+        <f t="shared" si="3"/>
         <v>126.65371771921107</v>
       </c>
       <c r="F20" s="2">
-        <f>F19</f>
+        <f t="shared" si="4"/>
         <v>118.21013653793032</v>
       </c>
       <c r="G20" s="2">
-        <f>G19</f>
+        <f t="shared" si="5"/>
         <v>113.98834594728997</v>
       </c>
       <c r="I20" s="15">
         <v>0.9</v>
       </c>
       <c r="J20" s="15">
-        <f>J19</f>
+        <f t="shared" si="6"/>
         <v>229.9848978831493</v>
       </c>
       <c r="K20" s="15">
-        <f>K19</f>
+        <f t="shared" si="7"/>
         <v>214.65257135760595</v>
       </c>
       <c r="L20" s="15">
-        <f>L19</f>
+        <f t="shared" si="8"/>
         <v>206.98640809483433</v>
       </c>
       <c r="M20" s="15">
-        <f>M19</f>
+        <f t="shared" si="9"/>
         <v>197.89491300203434</v>
       </c>
       <c r="N20" s="15">
-        <f>N19</f>
+        <f t="shared" si="10"/>
         <v>184.70191880189873</v>
       </c>
       <c r="O20" s="15">
-        <f>O19</f>
+        <f t="shared" si="11"/>
         <v>178.10542170183092</v>
       </c>
     </row>
